--- a/5-2 GHz Analysis/tables/models_metrics_in_test_set_Próxima.xlsx
+++ b/5-2 GHz Analysis/tables/models_metrics_in_test_set_Próxima.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.009293306249678</v>
+        <v>1.934404800538057</v>
       </c>
       <c r="C2" t="n">
-        <v>3.697934008444257</v>
+        <v>3.386296686189082</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6479787268202521</v>
+        <v>0.6975977593485854</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.346660171585001</v>
+        <v>2.241367533100733</v>
       </c>
       <c r="C3" t="n">
-        <v>4.25</v>
+        <v>4.125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3450677609200368</v>
+        <v>0.4549355386378225</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.620917307452776</v>
+        <v>1.571478190491265</v>
       </c>
       <c r="C4" t="n">
-        <v>5.407990651323987</v>
+        <v>2.142957746478873</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.01908130499714722</v>
+        <v>0.8682868937538168</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.99021555664678</v>
+        <v>1.920857547837128</v>
       </c>
       <c r="C5" t="n">
-        <v>3.61899399280621</v>
+        <v>3.306988653938654</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6611589444179398</v>
+        <v>0.7059804602205166</v>
       </c>
     </row>
     <row r="6">

--- a/5-2 GHz Analysis/tables/models_metrics_in_test_set_Próxima.xlsx
+++ b/5-2 GHz Analysis/tables/models_metrics_in_test_set_Próxima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,16 @@
           <t>R2</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Execution Time (ms)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Memory Usage (B)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -470,6 +480,12 @@
       <c r="D2" t="n">
         <v>0.6975977593485854</v>
       </c>
+      <c r="E2" t="n">
+        <v>7.445600000210106</v>
+      </c>
+      <c r="F2" t="n">
+        <v>53248</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -486,6 +502,12 @@
       <c r="D3" t="n">
         <v>0.4549355386378225</v>
       </c>
+      <c r="E3" t="n">
+        <v>7.472499972209334</v>
+      </c>
+      <c r="F3" t="n">
+        <v>53248</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -502,6 +524,12 @@
       <c r="D4" t="n">
         <v>0.8682868937538168</v>
       </c>
+      <c r="E4" t="n">
+        <v>20.87900001788512</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -518,6 +546,12 @@
       <c r="D5" t="n">
         <v>0.7059804602205166</v>
       </c>
+      <c r="E5" t="n">
+        <v>5.950500024482608</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -533,6 +567,12 @@
       </c>
       <c r="D6" t="n">
         <v>0.7288118470835958</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.208099999232218</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4096</v>
       </c>
     </row>
   </sheetData>
